--- a/2024/data.xlsx
+++ b/2024/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/work/cca_fixtures/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC27845-F802-674D-A615-5307CF077463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8765A59-9366-1F49-BBD1-5A3D47CA19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,7 +2603,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="V47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC119" sqref="AC119"/>
+      <selection pane="bottomRight" activeCell="Z138" sqref="Z138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2024/data.xlsx
+++ b/2024/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/work/cca_fixtures/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8765A59-9366-1F49-BBD1-5A3D47CA19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05528003-C1BF-3B46-B179-386A9C952D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="templates" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AC$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AB$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="456">
   <si>
     <t>Division</t>
   </si>
@@ -1559,13 +1559,13 @@
     <t>Max Consecutive</t>
   </si>
   <si>
-    <t>TBD-1</t>
-  </si>
-  <si>
     <t>Haslingfield Recreation Ground</t>
   </si>
   <si>
-    <t>Willingham CC</t>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Play</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1728,8 +1728,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1939,6 +1946,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2115,7 +2140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2128,6 +2153,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2205,13 +2233,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2226,7 +2247,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2241,13 +2276,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2596,14 +2624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="V47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z138" sqref="Z138"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2616,10 +2643,10 @@
     <col min="6" max="6" width="40.5" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="25.1640625" customWidth="1"/>
-    <col min="11" max="29" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="28" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2654,437 +2681,375 @@
         <v>45416</v>
       </c>
       <c r="L1" s="9">
-        <v>45416</v>
+        <v>45423</v>
       </c>
       <c r="M1" s="9">
-        <v>45423</v>
+        <v>45430</v>
       </c>
       <c r="N1" s="9">
-        <v>45430</v>
+        <v>45437</v>
       </c>
       <c r="O1" s="9">
-        <v>45437</v>
+        <v>45444</v>
       </c>
       <c r="P1" s="9">
-        <v>45444</v>
+        <v>45451</v>
       </c>
       <c r="Q1" s="9">
-        <v>45451</v>
+        <v>45458</v>
       </c>
       <c r="R1" s="9">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="S1" s="9">
-        <v>45465</v>
+        <v>45472</v>
       </c>
       <c r="T1" s="9">
-        <v>45472</v>
+        <v>45479</v>
       </c>
       <c r="U1" s="9">
-        <v>45479</v>
+        <v>45486</v>
       </c>
       <c r="V1" s="9">
-        <v>45486</v>
+        <v>45493</v>
       </c>
       <c r="W1" s="9">
-        <v>45493</v>
+        <v>45500</v>
       </c>
       <c r="X1" s="9">
-        <v>45500</v>
+        <v>45507</v>
       </c>
       <c r="Y1" s="9">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="Z1" s="9">
-        <v>45514</v>
+        <v>45521</v>
       </c>
       <c r="AA1" s="9">
-        <v>45521</v>
+        <v>45528</v>
       </c>
       <c r="AB1" s="9">
-        <v>45528</v>
-      </c>
-      <c r="AC1" s="9">
         <v>45535</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="J4" t="s">
         <v>411</v>
       </c>
-      <c r="L4" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
         <v>411</v>
       </c>
-      <c r="V6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="J7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M7" t="s">
-        <v>410</v>
-      </c>
-      <c r="N7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P7" t="s">
-        <v>410</v>
-      </c>
-      <c r="R7" t="s">
-        <v>410</v>
-      </c>
-      <c r="S7" t="s">
-        <v>410</v>
-      </c>
-      <c r="U7" t="s">
-        <v>410</v>
-      </c>
-      <c r="X7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" t="s">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="J8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="J9" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="J10" t="s">
         <v>411</v>
       </c>
-      <c r="M10" t="s">
-        <v>410</v>
-      </c>
-      <c r="O10" t="s">
-        <v>410</v>
-      </c>
-      <c r="R10" t="s">
-        <v>410</v>
-      </c>
-      <c r="S10" t="s">
-        <v>410</v>
-      </c>
       <c r="U10" t="s">
-        <v>410</v>
-      </c>
-      <c r="W10" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA10" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="J11" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="J12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>422</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="J13" t="s">
         <v>411</v>
       </c>
-      <c r="Q13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3092,51 +3057,57 @@
         <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
       </c>
       <c r="J14" t="s">
         <v>411</v>
       </c>
-      <c r="S14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>422</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -3144,314 +3115,337 @@
         <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>453</v>
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>423</v>
       </c>
       <c r="J16" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J17" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>424</v>
+      </c>
+      <c r="J21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>411</v>
-      </c>
-      <c r="R20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>356</v>
-      </c>
-      <c r="J21" t="s">
-        <v>411</v>
-      </c>
-      <c r="L21" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" t="s">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="J22" t="s">
         <v>411</v>
       </c>
-      <c r="O22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="J23" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" t="s">
-        <v>194</v>
+        <v>125</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24">
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>410</v>
+      </c>
+      <c r="N24" t="s">
+        <v>410</v>
+      </c>
+      <c r="P24" t="s">
+        <v>410</v>
+      </c>
+      <c r="R24" t="s">
+        <v>410</v>
+      </c>
+      <c r="S24" t="s">
+        <v>410</v>
+      </c>
+      <c r="T24" t="s">
+        <v>410</v>
+      </c>
+      <c r="V24" t="s">
+        <v>410</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>417</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" t="s">
-        <v>198</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="J25" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="D26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="J26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J26" t="s">
-        <v>411</v>
-      </c>
-      <c r="N26" t="s">
-        <v>410</v>
-      </c>
-      <c r="U26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="J27" t="s">
         <v>411</v>
@@ -3459,38 +3453,11 @@
       <c r="K27" t="s">
         <v>412</v>
       </c>
-      <c r="N27" t="s">
-        <v>410</v>
-      </c>
-      <c r="P27" t="s">
-        <v>410</v>
-      </c>
-      <c r="R27" t="s">
-        <v>410</v>
-      </c>
-      <c r="T27" t="s">
-        <v>410</v>
-      </c>
-      <c r="U27" t="s">
-        <v>410</v>
-      </c>
-      <c r="V27" t="s">
-        <v>410</v>
-      </c>
-      <c r="X27" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AA27" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -3498,77 +3465,113 @@
         <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>118</v>
+        <v>356</v>
       </c>
       <c r="J28" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" t="s">
+        <v>425</v>
+      </c>
+      <c r="G29" t="s">
+        <v>357</v>
+      </c>
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" t="s">
-        <v>213</v>
-      </c>
       <c r="J29" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>412</v>
+      </c>
+      <c r="L29" t="s">
+        <v>410</v>
+      </c>
+      <c r="M29" t="s">
+        <v>410</v>
+      </c>
+      <c r="N29" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" t="s">
+        <v>410</v>
+      </c>
+      <c r="P29" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>410</v>
+      </c>
+      <c r="R29" t="s">
+        <v>410</v>
+      </c>
+      <c r="S29" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" t="s">
-        <v>216</v>
+        <v>51</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -3593,715 +3596,783 @@
       <c r="J31" t="s">
         <v>411</v>
       </c>
-      <c r="R31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>228</v>
+        <v>167</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>411</v>
       </c>
-      <c r="O33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>410</v>
+      </c>
+      <c r="M33" t="s">
+        <v>410</v>
+      </c>
+      <c r="N33" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>410</v>
+      </c>
+      <c r="R33" t="s">
+        <v>410</v>
+      </c>
+      <c r="U33" t="s">
+        <v>410</v>
+      </c>
+      <c r="X33" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="J34" t="s">
         <v>411</v>
       </c>
-      <c r="U34" t="s">
-        <v>410</v>
-      </c>
-      <c r="V34" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
       </c>
       <c r="J36" t="s">
         <v>411</v>
       </c>
-      <c r="N36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" t="s">
-        <v>428</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
       </c>
       <c r="J37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>359</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>360</v>
+      </c>
       <c r="J38" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="J40" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y40" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>254</v>
+        <v>186</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
       </c>
       <c r="J41" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>410</v>
+      </c>
+      <c r="L41" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" t="s">
+        <v>410</v>
+      </c>
+      <c r="N41" t="s">
+        <v>411</v>
+      </c>
+      <c r="O41" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>410</v>
+      </c>
+      <c r="R41" t="s">
+        <v>410</v>
+      </c>
+      <c r="S41" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
       </c>
       <c r="J42" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>257</v>
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s">
         <v>411</v>
       </c>
-      <c r="K43" t="s">
-        <v>410</v>
-      </c>
-      <c r="L43" t="s">
-        <v>410</v>
-      </c>
-      <c r="M43" t="s">
-        <v>410</v>
-      </c>
-      <c r="N43" t="s">
-        <v>410</v>
-      </c>
-      <c r="O43" t="s">
-        <v>410</v>
-      </c>
-      <c r="V43" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="J44" t="s">
         <v>411</v>
       </c>
-      <c r="AC44" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" t="s">
+        <v>411</v>
+      </c>
+      <c r="T45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
         <v>33</v>
       </c>
-      <c r="E45" t="s">
-        <v>263</v>
-      </c>
-      <c r="F45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" t="s">
-        <v>145</v>
-      </c>
-      <c r="J45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="F46" t="s">
-        <v>434</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="J46" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>88</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
       </c>
       <c r="J47" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>416</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
       </c>
       <c r="J48" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
       </c>
       <c r="J49" t="s">
         <v>411</v>
       </c>
       <c r="U49" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
         <v>411</v>
       </c>
-      <c r="M50" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="J52" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>366</v>
       </c>
       <c r="J53" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="J54" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="J55" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
-      </c>
-      <c r="G56" t="s">
-        <v>294</v>
+        <v>427</v>
       </c>
       <c r="J56" t="s">
         <v>411</v>
       </c>
-      <c r="Q56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
-      </c>
-      <c r="G57" t="s">
-        <v>297</v>
+        <v>427</v>
       </c>
       <c r="J57" t="s">
         <v>411</v>
@@ -4309,89 +4380,89 @@
       <c r="R57" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="J58" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="J59" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="J60" t="s">
         <v>411</v>
       </c>
-      <c r="AB60" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>289</v>
       </c>
@@ -4399,485 +4470,477 @@
         <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F61" t="s">
         <v>437</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J61" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F62" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="G62" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="J62" t="s">
         <v>411</v>
       </c>
-      <c r="AC62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
         <v>10</v>
       </c>
-      <c r="E63" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" t="s">
-        <v>432</v>
-      </c>
-      <c r="J63" t="s">
-        <v>411</v>
-      </c>
-      <c r="P63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>289</v>
-      </c>
-      <c r="B64" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="J64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>274</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
         <v>10</v>
       </c>
-      <c r="E65" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" t="s">
-        <v>436</v>
-      </c>
-      <c r="J65" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" t="s">
-        <v>318</v>
-      </c>
-      <c r="C66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
       <c r="E66" t="s">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="J66" t="s">
         <v>411</v>
       </c>
-      <c r="AB66" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="J67" t="s">
         <v>411</v>
       </c>
-      <c r="V67" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="F68" t="s">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="J68" t="s">
         <v>411</v>
       </c>
-      <c r="AB68" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F69" t="s">
-        <v>427</v>
+        <v>227</v>
+      </c>
+      <c r="G69" t="s">
+        <v>228</v>
       </c>
       <c r="J69" t="s">
         <v>411</v>
       </c>
-      <c r="S69" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="F70" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="G70" t="s">
-        <v>329</v>
+        <v>232</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>411</v>
       </c>
-      <c r="AB70" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
+        <v>410</v>
+      </c>
+      <c r="U70" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="J71" t="s">
         <v>411</v>
       </c>
-      <c r="S71" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="G72" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="J72" t="s">
         <v>411</v>
       </c>
-      <c r="AB72" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="J73" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="J74" t="s">
         <v>411</v>
       </c>
-      <c r="S74" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>424</v>
+        <v>252</v>
+      </c>
+      <c r="G75" t="s">
+        <v>254</v>
       </c>
       <c r="J75" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="J76" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
+        <v>414</v>
       </c>
       <c r="J77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
         <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
         <v>102</v>
@@ -4889,7 +4952,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>335</v>
       </c>
@@ -4897,286 +4960,295 @@
         <v>336</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F79" t="s">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="J79" t="s">
         <v>411</v>
       </c>
-      <c r="K79" t="s">
-        <v>411</v>
-      </c>
-      <c r="L79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" t="s">
+        <v>411</v>
+      </c>
+      <c r="M80" t="s">
+        <v>410</v>
+      </c>
+      <c r="T80" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" t="s">
         <v>33</v>
       </c>
-      <c r="E80" t="s">
-        <v>344</v>
-      </c>
-      <c r="F80" t="s">
-        <v>431</v>
-      </c>
-      <c r="J80" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" t="s">
-        <v>345</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="G81" t="s">
-        <v>348</v>
+        <v>137</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L81" t="s">
+        <v>410</v>
+      </c>
+      <c r="M81" t="s">
+        <v>410</v>
+      </c>
+      <c r="O81" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>410</v>
+      </c>
+      <c r="R81" t="s">
+        <v>410</v>
+      </c>
+      <c r="T81" t="s">
+        <v>410</v>
+      </c>
+      <c r="W81" t="s">
+        <v>410</v>
+      </c>
+      <c r="X81" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="F82" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="G82" t="s">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="J82" t="s">
         <v>411</v>
       </c>
-      <c r="V82" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G83" t="s">
-        <v>357</v>
+        <v>68</v>
       </c>
       <c r="J83" t="s">
         <v>411</v>
       </c>
-      <c r="L83" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
-      </c>
-      <c r="G84" t="s">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="J84" t="s">
         <v>411</v>
       </c>
-      <c r="R84" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>359</v>
+        <v>105</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="J85" t="s">
         <v>411</v>
       </c>
-      <c r="AB85" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="J86" t="s">
         <v>411</v>
       </c>
-      <c r="O86" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" t="s">
+        <v>411</v>
+      </c>
+      <c r="K87" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
         <v>33</v>
       </c>
-      <c r="E87" t="s">
-        <v>362</v>
-      </c>
-      <c r="F87" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" t="s">
-        <v>190</v>
-      </c>
-      <c r="J87" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>349</v>
-      </c>
-      <c r="B88" t="s">
-        <v>350</v>
-      </c>
-      <c r="C88" t="s">
-        <v>363</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
       <c r="E88" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F88" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
       <c r="J88" t="s">
         <v>411</v>
@@ -5184,123 +5256,160 @@
       <c r="K88" t="s">
         <v>410</v>
       </c>
-      <c r="L88" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="G89" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="J89" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>373</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="F90" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
       <c r="J90" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L90" t="s">
+        <v>410</v>
+      </c>
+      <c r="M90" t="s">
+        <v>410</v>
+      </c>
+      <c r="P90" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>410</v>
+      </c>
+      <c r="R90" t="s">
+        <v>410</v>
+      </c>
+      <c r="S90" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D91" t="s">
         <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="J91" t="s">
         <v>411</v>
       </c>
-      <c r="K91" t="s">
-        <v>410</v>
-      </c>
-      <c r="L91" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
         <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>375</v>
+        <v>109</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>376</v>
+        <v>111</v>
       </c>
       <c r="J92" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>410</v>
+      </c>
+      <c r="L92" t="s">
+        <v>410</v>
+      </c>
+      <c r="N92" t="s">
+        <v>410</v>
+      </c>
+      <c r="O92" t="s">
+        <v>410</v>
+      </c>
+      <c r="P92" t="s">
+        <v>410</v>
+      </c>
+      <c r="R92" t="s">
+        <v>410</v>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="V92" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y92" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>371</v>
       </c>
@@ -5308,95 +5417,80 @@
         <v>372</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
         <v>77</v>
       </c>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F93" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J93" t="s">
         <v>411</v>
       </c>
-      <c r="AB93" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>371</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>438</v>
+        <v>74</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
       </c>
       <c r="J94" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="D95" t="s">
         <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>381</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>455</v>
+        <v>305</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="J95" t="s">
         <v>411</v>
       </c>
-      <c r="K95" t="s">
-        <v>410</v>
-      </c>
-      <c r="L95" t="s">
-        <v>410</v>
-      </c>
-      <c r="M95" t="s">
-        <v>410</v>
-      </c>
-      <c r="N95" t="s">
-        <v>410</v>
-      </c>
-      <c r="O95" t="s">
-        <v>410</v>
-      </c>
-      <c r="V95" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -5404,1115 +5498,1305 @@
         <v>372</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
         <v>77</v>
       </c>
       <c r="E96" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>378</v>
+      </c>
+      <c r="G96" t="s">
+        <v>379</v>
       </c>
       <c r="J96" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>419</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
-      </c>
-      <c r="H97" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J97" t="s">
         <v>411</v>
       </c>
-      <c r="AC97" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="O98" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q98" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="S98" t="s">
+        <v>410</v>
+      </c>
+      <c r="T98" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="U98" t="s">
+        <v>410</v>
+      </c>
+      <c r="W98" t="s">
+        <v>410</v>
+      </c>
+      <c r="X98" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z98" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="F99" t="s">
-        <v>216</v>
-      </c>
-      <c r="G99" t="s">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="J99" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="F100" t="s">
-        <v>422</v>
-      </c>
-      <c r="G100" t="s">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="J100" t="s">
         <v>411</v>
       </c>
-      <c r="Q100" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>347</v>
+      </c>
+      <c r="G101" t="s">
+        <v>348</v>
       </c>
       <c r="J101" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R101" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>223</v>
+        <v>437</v>
       </c>
       <c r="G102" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="J102" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
       </c>
       <c r="E103" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
+        <v>438</v>
       </c>
       <c r="J103" t="s">
         <v>411</v>
       </c>
-      <c r="V103" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>386</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>393</v>
-      </c>
-      <c r="F104" t="s">
-        <v>177</v>
+        <v>258</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="G104" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="J104" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
         <v>33</v>
       </c>
       <c r="E105" t="s">
-        <v>394</v>
-      </c>
-      <c r="F105" t="s">
-        <v>311</v>
+        <v>381</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G105" t="s">
+        <v>382</v>
       </c>
       <c r="J105" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U105" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" t="s">
+        <v>410</v>
+      </c>
+      <c r="M106" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>410</v>
+      </c>
+      <c r="S106" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="U106" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="W106" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA106" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB106" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" t="s">
+        <v>372</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
         <v>77</v>
       </c>
-      <c r="E106" t="s">
-        <v>395</v>
-      </c>
-      <c r="F106" t="s">
-        <v>439</v>
-      </c>
-      <c r="J106" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>386</v>
-      </c>
-      <c r="B107" t="s">
-        <v>387</v>
-      </c>
-      <c r="C107" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" t="s">
-        <v>33</v>
-      </c>
       <c r="E107" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="J107" t="s">
         <v>411</v>
       </c>
-      <c r="X107" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="J108" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="J109" t="s">
         <v>411</v>
       </c>
-      <c r="R109" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="J110" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S110" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="J111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S111" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB111" s="10"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="F112" t="s">
-        <v>414</v>
+        <v>177</v>
+      </c>
+      <c r="G112" t="s">
+        <v>178</v>
       </c>
       <c r="J112" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>386</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>393</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="J113" t="s">
         <v>411</v>
       </c>
-      <c r="K113" t="s">
-        <v>410</v>
-      </c>
-      <c r="L113" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="D114" t="s">
         <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="H114" t="s">
+        <v>261</v>
+      </c>
+      <c r="J114" t="s">
+        <v>411</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="N114" t="s">
+        <v>410</v>
+      </c>
+      <c r="P114" t="s">
+        <v>410</v>
+      </c>
+      <c r="S114" t="s">
+        <v>410</v>
+      </c>
+      <c r="U114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="V114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z114" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA114" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="D115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G115" t="s">
+        <v>262</v>
+      </c>
+      <c r="H115" t="s">
+        <v>113</v>
+      </c>
+      <c r="J115" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" t="s">
+        <v>419</v>
+      </c>
+      <c r="D116" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" t="s">
+        <v>384</v>
+      </c>
+      <c r="F116" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" t="s">
+        <v>114</v>
+      </c>
+      <c r="H116" t="s">
+        <v>261</v>
+      </c>
+      <c r="J116" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" t="s">
         <v>10</v>
       </c>
-      <c r="E115" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" t="s">
-        <v>433</v>
-      </c>
-      <c r="G115" t="s">
-        <v>39</v>
-      </c>
-      <c r="J115" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E117" t="s">
+        <v>310</v>
+      </c>
+      <c r="F117" t="s">
+        <v>311</v>
+      </c>
+      <c r="G117" t="s">
+        <v>312</v>
+      </c>
+      <c r="J117" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>394</v>
+      </c>
+      <c r="F118" t="s">
+        <v>311</v>
+      </c>
+      <c r="J118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" t="s">
+        <v>290</v>
+      </c>
+      <c r="C119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" t="s">
         <v>10</v>
       </c>
-      <c r="E116" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" t="s">
-        <v>43</v>
-      </c>
-      <c r="J116" t="s">
-        <v>411</v>
-      </c>
-      <c r="S116" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E119" t="s">
+        <v>314</v>
+      </c>
+      <c r="F119" t="s">
+        <v>432</v>
+      </c>
+      <c r="J119" t="s">
+        <v>411</v>
+      </c>
+      <c r="O119" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>143</v>
+      </c>
+      <c r="F120" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" t="s">
+        <v>145</v>
+      </c>
+      <c r="J120" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
         <v>33</v>
       </c>
-      <c r="E117" t="s">
-        <v>45</v>
-      </c>
-      <c r="F117" t="s">
-        <v>44</v>
-      </c>
-      <c r="G117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>47</v>
-      </c>
-      <c r="B118" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>67</v>
-      </c>
-      <c r="F118" t="s">
-        <v>429</v>
-      </c>
-      <c r="G118" t="s">
-        <v>68</v>
-      </c>
-      <c r="J118" t="s">
-        <v>411</v>
-      </c>
-      <c r="K118" t="s">
-        <v>410</v>
-      </c>
-      <c r="L118" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>265</v>
-      </c>
-      <c r="B119" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" t="s">
-        <v>281</v>
-      </c>
-      <c r="F119" t="s">
-        <v>282</v>
-      </c>
-      <c r="G119" t="s">
-        <v>283</v>
-      </c>
-      <c r="J119" t="s">
-        <v>411</v>
-      </c>
-      <c r="T119" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>47</v>
-      </c>
-      <c r="B120" t="s">
-        <v>48</v>
-      </c>
-      <c r="C120" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" t="s">
-        <v>77</v>
-      </c>
-      <c r="E120" t="s">
-        <v>78</v>
-      </c>
-      <c r="F120" t="s">
-        <v>282</v>
-      </c>
-      <c r="J120" t="s">
-        <v>411</v>
-      </c>
-      <c r="T120" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>47</v>
-      </c>
-      <c r="B121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C121" t="s">
-        <v>72</v>
-      </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
       <c r="E121" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="F121" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="J121" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="F122" t="s">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="G122" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
       <c r="J122" t="s">
         <v>411</v>
       </c>
-      <c r="X122" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
         <v>33</v>
       </c>
       <c r="E123" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="F123" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G123" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J123" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F124" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="G124" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="J124" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
         <v>433</v>
       </c>
+      <c r="G125" t="s">
+        <v>39</v>
+      </c>
       <c r="J125" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
-      </c>
-      <c r="G126" t="s">
-        <v>53</v>
+        <v>433</v>
       </c>
       <c r="J126" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="10"/>
+      <c r="Z126" s="10"/>
+      <c r="AA126" s="10"/>
+      <c r="AB126" s="10"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="F127" t="s">
-        <v>440</v>
-      </c>
-      <c r="G127" t="s">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="J127" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="10"/>
+      <c r="Z127" s="10"/>
+      <c r="AA127" s="10"/>
+      <c r="AB127" s="10"/>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F128" t="s">
-        <v>424</v>
+        <v>148</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>410</v>
+      </c>
+      <c r="N128" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>410</v>
+      </c>
+      <c r="R128" t="s">
+        <v>410</v>
+      </c>
+      <c r="T128" t="s">
+        <v>410</v>
+      </c>
+      <c r="V128" t="s">
+        <v>410</v>
+      </c>
+      <c r="X128" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="F129" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="G129" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="J129" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W129" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>396</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="J130" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W130" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F131" t="s">
-        <v>427</v>
+        <v>440</v>
+      </c>
+      <c r="G131" t="s">
+        <v>81</v>
       </c>
       <c r="J131" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="J132" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R132" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="F133" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="J133" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R133" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>105</v>
+        <v>332</v>
       </c>
       <c r="F134" t="s">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="G134" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="J134" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA134" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D135" t="s">
         <v>33</v>
       </c>
       <c r="E135" t="s">
-        <v>109</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>110</v>
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>111</v>
-      </c>
-      <c r="J135" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K135" t="s">
+        <v>410</v>
+      </c>
+      <c r="M135" t="s">
+        <v>410</v>
+      </c>
+      <c r="N135" t="s">
+        <v>410</v>
+      </c>
+      <c r="P135" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>410</v>
+      </c>
+      <c r="U135" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="W135" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB135" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="C136" t="s">
-        <v>419</v>
+        <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E136" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="G136" t="s">
-        <v>114</v>
-      </c>
-      <c r="H136" t="s">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="J136" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="F137" t="s">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="G137" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="J137" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC137" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CCA Junior League 3 South"/>
-        <filter val="CCA Senior League Division 2"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:AC27">
-      <sortCondition ref="A1:A137"/>
+  <autoFilter ref="A1:AB137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB137">
+      <sortCondition ref="C1:C137"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -6522,7 +6806,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{6E79F0DB-3131-AA45-A339-22E9B6D6CF34}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -6532,7 +6816,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8ACDE50F-381C-0040-AA5F-51B452E45E3B}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -6542,7 +6826,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002BB6F9-1020-CF47-9F23-6ACCA91C21AF}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -6552,7 +6836,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{54AC2061-F3D4-D746-B1F5-67BE6731A4E8}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -6562,10 +6846,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2:J137</xm:sqref>
+          <xm:sqref>K135:T135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{6C9DA6DE-780D-A94F-B8AD-4B6CB0378B0D}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -6575,7 +6859,27 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{EBA00917-73A6-AD41-940A-FB2F9BC0EDB3}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -6585,7 +6889,40 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{DFCAAC19-AF7D-AC41-A5B2-2025BDF65841}">
+          <xm:sqref>K134:Z134 V135 X135:AA135 K136:AB268</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -6595,7 +6932,40 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{DE37FDFC-4C7E-1F45-822A-6ABEBE82D3C5}">
+          <xm:sqref>K2:AB23 J2:J137 K24:W24 Y24 AA24:AB24 K25:AB91 K92:R92 T92:U92 W92:X92 Z92:AB92 K93:AB105 K106:R106 T106 V106:Z106 K107:AB113 L114:T114 W114:X114 K115:AA115 K116:AB133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -6605,93 +6975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:K268</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
-            <xm:f>constraints!$A$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
-            <xm:f>constraints!$A$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
-            <xm:f>constraints!$A$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
-            <xm:f>constraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L2:AC133 L134:AA134 L135:AC268</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
-            <xm:f>constraints!$A$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
-            <xm:f>constraints!$A$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
-            <xm:f>constraints!$A$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
-            <xm:f>constraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC134</xm:sqref>
+          <xm:sqref>AB134</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6701,7 +6985,7 @@
           <x14:formula1>
             <xm:f>constraints!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB133 AC133:AC134 T133:AA134 J2:J137 K135:AC268 K2:S134 T2:AC132</xm:sqref>
+          <xm:sqref>AA133 AB133:AB134 S133:Z134 J2:J137 Z25:Z113 S107:S132 T116:AB132 X25:X113 X2:X23 V93:V113 U107:U113 Z2:Z23 Y93:Y113 S2:S91 L2:R134 W2:W113 V2:V91 Y2:Y91 S93:S105 U2:U105 AA107:AB113 AA2:AB105 K2:K113 T2:T115 U115:V115 W114:X115 Y115:AA115 K115:K268 L135:T268 U136:U268 V135:V268 W136:W268 X135:AA268 AB136:AB268</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6906,9 +7190,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C797D23-B95D-F946-8382-DEB4309B0220}">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6933,6 +7219,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/2024/data.xlsx
+++ b/2024/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/work/cca_fixtures/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05528003-C1BF-3B46-B179-386A9C952D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2FA53-8A83-CC40-8A39-BE779A76A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="760" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grounds" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="templates" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AB$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AC$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="456">
   <si>
     <t>Division</t>
   </si>
@@ -2201,7 +2201,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -2233,6 +2233,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2247,21 +2254,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2276,6 +2269,69 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2624,13 +2680,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB137"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I105" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,10 +2700,10 @@
     <col min="6" max="6" width="40.5" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="25.1640625" customWidth="1"/>
-    <col min="11" max="28" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="29" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2731,8 +2788,11 @@
       <c r="AB1" s="9">
         <v>45535</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="9">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2757,8 +2817,11 @@
       <c r="J2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -2783,8 +2846,11 @@
       <c r="J3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -2809,8 +2875,11 @@
       <c r="J4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2835,8 +2904,11 @@
       <c r="J5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -2861,8 +2933,11 @@
       <c r="J6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2886,8 +2961,11 @@
       <c r="J7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>265</v>
       </c>
@@ -2909,8 +2987,11 @@
       <c r="J8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -2929,14 +3010,20 @@
       <c r="F9" t="s">
         <v>421</v>
       </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
       <c r="J9" t="s">
         <v>411</v>
       </c>
       <c r="T9" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -2967,8 +3054,11 @@
       <c r="AA10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -2993,8 +3083,11 @@
       <c r="J11" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -3019,8 +3112,11 @@
       <c r="J12" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -3042,14 +3138,20 @@
       <c r="G13" t="s">
         <v>294</v>
       </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
       <c r="J13" t="s">
         <v>411</v>
       </c>
       <c r="P13" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3077,8 +3179,11 @@
       <c r="P14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>386</v>
       </c>
@@ -3100,14 +3205,20 @@
       <c r="G15" t="s">
         <v>161</v>
       </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="J15" t="s">
         <v>411</v>
       </c>
       <c r="P15" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -3132,8 +3243,11 @@
       <c r="R16" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>335</v>
       </c>
@@ -3155,9 +3269,11 @@
       <c r="J17" t="s">
         <v>411</v>
       </c>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3185,8 +3301,11 @@
       <c r="Q18" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -3208,14 +3327,20 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
       <c r="J19" t="s">
         <v>411</v>
       </c>
       <c r="Q19" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3240,8 +3365,11 @@
       <c r="J20" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3263,8 +3391,11 @@
       <c r="J21" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -3286,8 +3417,11 @@
       <c r="J22" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>265</v>
       </c>
@@ -3309,14 +3443,20 @@
       <c r="G23" t="s">
         <v>273</v>
       </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
       <c r="J23" t="s">
         <v>411</v>
       </c>
       <c r="L23" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -3375,8 +3515,11 @@
       <c r="AB24" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -3402,8 +3545,11 @@
       <c r="J25" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>371</v>
       </c>
@@ -3427,8 +3573,11 @@
       <c r="J26" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -3447,17 +3596,23 @@
       <c r="F27" t="s">
         <v>356</v>
       </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
       <c r="J27" t="s">
         <v>411</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>412</v>
       </c>
       <c r="AA27" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -3476,6 +3631,9 @@
       <c r="F28" t="s">
         <v>356</v>
       </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
       <c r="J28" t="s">
         <v>411</v>
       </c>
@@ -3485,8 +3643,11 @@
       <c r="AA28" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>349</v>
       </c>
@@ -3544,8 +3705,11 @@
       <c r="AA29" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3570,8 +3734,36 @@
       <c r="J30" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>410</v>
+      </c>
+      <c r="O30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="T30" t="s">
+        <v>410</v>
+      </c>
+      <c r="U30" t="s">
+        <v>410</v>
+      </c>
+      <c r="V30" t="s">
+        <v>410</v>
+      </c>
+      <c r="X30" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -3593,14 +3785,20 @@
       <c r="G31" t="s">
         <v>220</v>
       </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
       <c r="J31" t="s">
         <v>411</v>
       </c>
       <c r="Q31" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>349</v>
       </c>
@@ -3631,8 +3829,11 @@
       <c r="AA32" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -3687,8 +3888,11 @@
       <c r="AB33" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3710,11 +3914,17 @@
       <c r="G34" t="s">
         <v>247</v>
       </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
       <c r="J34" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -3739,8 +3949,11 @@
       <c r="J35" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +3981,11 @@
       <c r="J36" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3794,8 +4010,38 @@
       <c r="J37" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>410</v>
+      </c>
+      <c r="M37" t="s">
+        <v>410</v>
+      </c>
+      <c r="O37" t="s">
+        <v>410</v>
+      </c>
+      <c r="P37" t="s">
+        <v>410</v>
+      </c>
+      <c r="R37" t="s">
+        <v>410</v>
+      </c>
+      <c r="T37" t="s">
+        <v>410</v>
+      </c>
+      <c r="V37" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>349</v>
       </c>
@@ -3823,8 +4069,11 @@
       <c r="AA38" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>386</v>
       </c>
@@ -3846,8 +4095,11 @@
       <c r="J39" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>317</v>
       </c>
@@ -3866,6 +4118,9 @@
       <c r="F40" t="s">
         <v>436</v>
       </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
       <c r="J40" t="s">
         <v>411</v>
       </c>
@@ -3875,8 +4130,11 @@
       <c r="AA40" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -3934,8 +4192,11 @@
       <c r="AB41" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -3957,6 +4218,9 @@
       <c r="G42" t="s">
         <v>186</v>
       </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
       <c r="J42" t="s">
         <v>411</v>
       </c>
@@ -3966,8 +4230,11 @@
       <c r="AA42" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3992,8 +4259,11 @@
       <c r="J43" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>317</v>
       </c>
@@ -4021,8 +4291,11 @@
       <c r="AA44" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -4050,8 +4323,11 @@
       <c r="T45" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>349</v>
       </c>
@@ -4082,8 +4358,11 @@
       <c r="AA46" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4108,8 +4387,11 @@
       <c r="J47" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -4134,8 +4416,12 @@
       <c r="J48" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U48" s="6"/>
+      <c r="AC48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>317</v>
       </c>
@@ -4166,8 +4452,11 @@
       <c r="AA49" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4192,8 +4481,11 @@
       <c r="J50" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -4218,8 +4510,11 @@
       <c r="J51" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -4247,8 +4542,11 @@
       <c r="AA52" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -4270,6 +4568,9 @@
       <c r="G53" t="s">
         <v>366</v>
       </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
       <c r="J53" t="s">
         <v>411</v>
       </c>
@@ -4279,8 +4580,11 @@
       <c r="AA53" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -4305,8 +4609,11 @@
       <c r="J54" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>386</v>
       </c>
@@ -4331,8 +4638,11 @@
       <c r="J55" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC55" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4354,8 +4664,12 @@
       <c r="J56" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R56" s="6"/>
+      <c r="AC56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>317</v>
       </c>
@@ -4383,8 +4697,11 @@
       <c r="AA57" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4409,8 +4726,11 @@
       <c r="J58" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>335</v>
       </c>
@@ -4435,8 +4755,11 @@
       <c r="J59" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>349</v>
       </c>
@@ -4461,8 +4784,11 @@
       <c r="J60" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>289</v>
       </c>
@@ -4484,14 +4810,20 @@
       <c r="G61" t="s">
         <v>297</v>
       </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
       <c r="J61" t="s">
         <v>411</v>
       </c>
       <c r="Q61" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>317</v>
       </c>
@@ -4519,8 +4851,11 @@
       <c r="AA62" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -4546,8 +4881,11 @@
       <c r="J63" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4572,8 +4910,11 @@
       <c r="J64" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>265</v>
       </c>
@@ -4598,8 +4939,11 @@
       <c r="J65" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4627,8 +4971,11 @@
       <c r="U66" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC66" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>386</v>
       </c>
@@ -4650,14 +4997,20 @@
       <c r="G67" t="s">
         <v>134</v>
       </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
       <c r="J67" t="s">
         <v>411</v>
       </c>
       <c r="U67" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC67" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -4682,8 +5035,11 @@
       <c r="J68" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -4705,14 +5061,20 @@
       <c r="G69" t="s">
         <v>228</v>
       </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
       <c r="J69" t="s">
         <v>411</v>
       </c>
       <c r="N69" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC69" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -4735,7 +5097,7 @@
         <v>232</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>411</v>
@@ -4746,8 +5108,11 @@
       <c r="U70" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>242</v>
       </c>
@@ -4772,8 +5137,11 @@
       <c r="J71" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC71" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -4798,8 +5166,11 @@
       <c r="J72" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC72" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -4821,14 +5192,20 @@
       <c r="G73" t="s">
         <v>239</v>
       </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
       <c r="J73" t="s">
         <v>411</v>
       </c>
       <c r="M73" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -4850,8 +5227,11 @@
       <c r="J74" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC74" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>242</v>
       </c>
@@ -4876,8 +5256,11 @@
       <c r="J75" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -4902,8 +5285,11 @@
       <c r="J76" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4925,8 +5311,11 @@
       <c r="J77" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4951,8 +5340,11 @@
       <c r="J78" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>335</v>
       </c>
@@ -4977,8 +5369,11 @@
       <c r="J79" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC79" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -5000,6 +5395,9 @@
       <c r="G80" t="s">
         <v>202</v>
       </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
       <c r="J80" t="s">
         <v>411</v>
       </c>
@@ -5009,8 +5407,11 @@
       <c r="T80" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC80" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>119</v>
       </c>
@@ -5033,7 +5434,7 @@
         <v>137</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>411</v>
@@ -5065,8 +5466,11 @@
       <c r="AB81" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -5094,8 +5498,11 @@
       <c r="K82" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -5117,6 +5524,9 @@
       <c r="G83" t="s">
         <v>68</v>
       </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
       <c r="J83" t="s">
         <v>411</v>
       </c>
@@ -5124,7 +5534,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -5146,8 +5556,11 @@
       <c r="J84" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC84" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5172,8 +5585,11 @@
       <c r="J85" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -5198,8 +5614,11 @@
       <c r="J86" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC86" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5227,8 +5646,11 @@
       <c r="K87" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>371</v>
       </c>
@@ -5250,14 +5672,20 @@
       <c r="G88" t="s">
         <v>31</v>
       </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
       <c r="J88" t="s">
         <v>411</v>
       </c>
       <c r="K88" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -5282,8 +5710,11 @@
       <c r="J89" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -5329,8 +5760,11 @@
       <c r="S90" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC90" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -5355,8 +5789,11 @@
       <c r="J91" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC91" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -5378,6 +5815,9 @@
       <c r="G92" t="s">
         <v>111</v>
       </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
       <c r="J92" t="s">
         <v>411</v>
       </c>
@@ -5408,8 +5848,11 @@
       <c r="Y92" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>371</v>
       </c>
@@ -5434,8 +5877,11 @@
       <c r="J93" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -5460,8 +5906,11 @@
       <c r="J94" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC94" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -5489,8 +5938,11 @@
       <c r="AA95" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC95" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -5518,8 +5970,11 @@
       <c r="AA96" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC96" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -5544,8 +5999,11 @@
       <c r="J97" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -5609,8 +6067,11 @@
       <c r="AB98" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -5632,8 +6093,11 @@
       <c r="J99" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC99" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>335</v>
       </c>
@@ -5652,11 +6116,17 @@
       <c r="F100" t="s">
         <v>431</v>
       </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
       <c r="J100" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>335</v>
       </c>
@@ -5684,8 +6154,11 @@
       <c r="R101" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC101" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -5710,8 +6183,14 @@
       <c r="J102" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q102" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>371</v>
       </c>
@@ -5733,8 +6212,11 @@
       <c r="J103" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>242</v>
       </c>
@@ -5756,14 +6238,20 @@
       <c r="G104" t="s">
         <v>259</v>
       </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
       <c r="J104" t="s">
         <v>411</v>
       </c>
       <c r="U104" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>371</v>
       </c>
@@ -5785,14 +6273,20 @@
       <c r="G105" t="s">
         <v>382</v>
       </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
       <c r="J105" t="s">
         <v>411</v>
       </c>
       <c r="U105" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC105" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5814,6 +6308,9 @@
       <c r="G106" t="s">
         <v>36</v>
       </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
       <c r="K106" t="s">
         <v>410</v>
       </c>
@@ -5841,8 +6338,11 @@
       <c r="AB106" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -5864,8 +6364,11 @@
       <c r="J107" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC107" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>150</v>
       </c>
@@ -5890,8 +6393,11 @@
       <c r="J108" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC108" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>265</v>
       </c>
@@ -5916,8 +6422,32 @@
       <c r="J109" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="M109" t="s">
+        <v>410</v>
+      </c>
+      <c r="O109" t="s">
+        <v>410</v>
+      </c>
+      <c r="P109" t="s">
+        <v>410</v>
+      </c>
+      <c r="S109" t="s">
+        <v>410</v>
+      </c>
+      <c r="T109" t="s">
+        <v>410</v>
+      </c>
+      <c r="U109" t="s">
+        <v>410</v>
+      </c>
+      <c r="X109" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -5945,8 +6475,11 @@
       <c r="AB110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC110" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>265</v>
       </c>
@@ -5968,15 +6501,20 @@
       <c r="G111" t="s">
         <v>283</v>
       </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
       <c r="J111" t="s">
         <v>411</v>
       </c>
       <c r="S111" t="s">
         <v>410</v>
       </c>
-      <c r="AB111" s="10"/>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>150</v>
       </c>
@@ -5998,11 +6536,17 @@
       <c r="G112" t="s">
         <v>178</v>
       </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
       <c r="J112" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC112" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>386</v>
       </c>
@@ -6027,8 +6571,11 @@
       <c r="J113" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>82</v>
       </c>
@@ -6053,6 +6600,9 @@
       <c r="H114" t="s">
         <v>261</v>
       </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
       <c r="J114" t="s">
         <v>411</v>
       </c>
@@ -6083,8 +6633,11 @@
       <c r="AA114" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC114" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -6109,14 +6662,20 @@
       <c r="H115" t="s">
         <v>113</v>
       </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
       <c r="J115" t="s">
         <v>411</v>
       </c>
       <c r="AA115" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC115" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>371</v>
       </c>
@@ -6147,8 +6706,11 @@
       <c r="AA116" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -6170,14 +6732,20 @@
       <c r="G117" t="s">
         <v>312</v>
       </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
       <c r="J117" t="s">
         <v>411</v>
       </c>
       <c r="AB117" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>386</v>
       </c>
@@ -6196,11 +6764,17 @@
       <c r="F118" t="s">
         <v>311</v>
       </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
       <c r="J118" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -6219,14 +6793,20 @@
       <c r="F119" t="s">
         <v>432</v>
       </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
       <c r="J119" t="s">
         <v>411</v>
       </c>
       <c r="O119" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC119" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6251,8 +6831,11 @@
       <c r="J120" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC120" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -6274,11 +6857,17 @@
       <c r="G121" t="s">
         <v>145</v>
       </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
       <c r="J121" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC121" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -6303,8 +6892,11 @@
       <c r="J122" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC122" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -6329,8 +6921,11 @@
       <c r="J123" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC123" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>289</v>
       </c>
@@ -6355,8 +6950,11 @@
       <c r="J124" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6381,8 +6979,11 @@
       <c r="J125" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC125" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -6422,8 +7023,11 @@
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC126" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>386</v>
       </c>
@@ -6463,8 +7067,11 @@
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC127" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -6487,7 +7094,7 @@
         <v>149</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>411</v>
@@ -6519,8 +7126,11 @@
       <c r="AB128" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC128" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -6548,8 +7158,11 @@
       <c r="W129" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC129" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>386</v>
       </c>
@@ -6571,14 +7184,20 @@
       <c r="G130" t="s">
         <v>288</v>
       </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
       <c r="J130" t="s">
         <v>411</v>
       </c>
       <c r="W130" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC130" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>47</v>
       </c>
@@ -6603,8 +7222,11 @@
       <c r="J131" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC131" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6632,8 +7254,11 @@
       <c r="R132" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC132" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>317</v>
       </c>
@@ -6655,6 +7280,9 @@
       <c r="G133" t="s">
         <v>43</v>
       </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
       <c r="J133" t="s">
         <v>411</v>
       </c>
@@ -6664,8 +7292,11 @@
       <c r="AA133" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC133" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>317</v>
       </c>
@@ -6693,8 +7324,11 @@
       <c r="AA134" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC134" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6716,6 +7350,9 @@
       <c r="G135" t="s">
         <v>46</v>
       </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
       <c r="K135" t="s">
         <v>410</v>
       </c>
@@ -6740,8 +7377,11 @@
       <c r="AB135" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC135" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>242</v>
       </c>
@@ -6766,8 +7406,11 @@
       <c r="J136" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>371</v>
       </c>
@@ -6792,12 +7435,17 @@
       <c r="J137" t="s">
         <v>411</v>
       </c>
+      <c r="AC137" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB137" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB137">
-      <sortCondition ref="C1:C137"/>
-    </sortState>
+  <autoFilter ref="A1:AC137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CCA Junior League 4 West"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6806,7 +7454,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{6E79F0DB-3131-AA45-A339-22E9B6D6CF34}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{6E79F0DB-3131-AA45-A339-22E9B6D6CF34}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -6816,7 +7464,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8ACDE50F-381C-0040-AA5F-51B452E45E3B}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{8ACDE50F-381C-0040-AA5F-51B452E45E3B}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -6826,7 +7474,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002BB6F9-1020-CF47-9F23-6ACCA91C21AF}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{002BB6F9-1020-CF47-9F23-6ACCA91C21AF}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -6836,7 +7484,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{54AC2061-F3D4-D746-B1F5-67BE6731A4E8}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{54AC2061-F3D4-D746-B1F5-67BE6731A4E8}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -6846,10 +7494,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K135:T135</xm:sqref>
+          <xm:sqref>K135:T135 K25:AB26 L27:AB27 O28:AB28 K28:M28 K29:AB91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -6859,7 +7507,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -6869,7 +7527,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -6879,7 +7537,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
+          <xm:sqref>K134:Z134 V135 X135:AA135 K136:AB268</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -6889,10 +7560,30 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K134:Z134 V135 X135:AA135 K136:AB268</xm:sqref>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2:J137 K24:W24 Y24 AA24:AB24 K92:R92 T92:U92 W92:X92 Z92:AB92 K93:AB105 K106:R106 T106 V106:Z106 L114:T114 W114:X114 K115:AA115 K116:AB133 K2:AB23 K107:AB113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -6902,17 +7593,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
-            <xm:f>constraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -6922,7 +7603,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -6932,40 +7613,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:AB23 J2:J137 K24:W24 Y24 AA24:AB24 K25:AB91 K92:R92 T92:U92 W92:X92 Z92:AB92 K93:AB105 K106:R106 T106 V106:Z106 K107:AB113 L114:T114 W114:X114 K115:AA115 K116:AB133</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
-            <xm:f>constraints!$A$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
-            <xm:f>constraints!$A$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
-            <xm:f>constraints!$A$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -6977,6 +7625,92 @@
           </x14:cfRule>
           <xm:sqref>AB134</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{E1B4AC4F-5B7E-724B-90C7-34BBFB20B63C}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{DD224C00-D07D-8140-A4AD-370D626436B1}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{546C9E0B-8268-104B-A2CD-6BFAFC8C3132}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{EFEDC74D-3E78-1F4C-9575-5A63930C78A4}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AC2:AC136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{95897C91-1722-8549-A7B8-F8A98D5DE4EC}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{EADE4857-66E8-2A4B-86DF-988227388354}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F32A821B-72D2-CC4B-AD40-C13A356168A3}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{3C457CC1-F058-084E-A41D-960715CD8C8C}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AC137</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6985,7 +7719,7 @@
           <x14:formula1>
             <xm:f>constraints!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA133 AB133:AB134 S133:Z134 J2:J137 Z25:Z113 S107:S132 T116:AB132 X25:X113 X2:X23 V93:V113 U107:U113 Z2:Z23 Y93:Y113 S2:S91 L2:R134 W2:W113 V2:V91 Y2:Y91 S93:S105 U2:U105 AA107:AB113 AA2:AB105 K2:K113 T2:T115 U115:V115 W114:X115 Y115:AA115 K115:K268 L135:T268 U136:U268 V135:V268 W136:W268 X135:AA268 AB136:AB268</xm:sqref>
+          <xm:sqref>AA133 AB133:AB134 S133:Z134 J2:J137 Z25:Z113 T116:AB132 S107:S132 X2:X23 V93:V113 T2:T115 Z2:Z23 Y93:Y113 W2:W113 O28:R28 U2:U105 S2:S91 V2:V91 S93:S105 AA2:AB105 X25:X113 AB136:AB268 Y2:Y91 U115:V115 W114:X115 Y115:AA115 K115:K268 L135:T268 U136:U268 V135:V268 W136:W268 X135:AA268 U107:U113 AA107:AB113 K2:K26 K29:K113 L2:R27 AC2:AC137 K28:M28 L29:R134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/2024/data.xlsx
+++ b/2024/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/work/cca_fixtures/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2FA53-8A83-CC40-8A39-BE779A76A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967A440-69ED-A844-A3C0-3D74066F663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="760" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="30240" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grounds" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="456">
   <si>
     <t>Division</t>
   </si>
@@ -2201,7 +2201,63 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2684,10 +2740,10 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I154" sqref="I154"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,7 +2755,8 @@
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="25.1640625" customWidth="1"/>
+    <col min="8" max="9" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
     <col min="11" max="29" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3023,7 +3080,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -3647,7 +3704,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>349</v>
       </c>
@@ -3798,7 +3855,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>349</v>
       </c>
@@ -3953,7 +4010,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3975,11 +4032,14 @@
       <c r="G36" t="s">
         <v>57</v>
       </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
       <c r="J36" t="s">
         <v>411</v>
+      </c>
+      <c r="K36" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>413</v>
       </c>
       <c r="AC36" t="s">
         <v>411</v>
@@ -4066,14 +4126,20 @@
       <c r="J38" t="s">
         <v>411</v>
       </c>
+      <c r="K38" t="s">
+        <v>410</v>
+      </c>
       <c r="AA38" t="s">
         <v>412</v>
       </c>
+      <c r="AB38" t="s">
+        <v>410</v>
+      </c>
       <c r="AC38" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>386</v>
       </c>
@@ -4094,6 +4160,12 @@
       </c>
       <c r="J39" t="s">
         <v>411</v>
+      </c>
+      <c r="K39" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>410</v>
       </c>
       <c r="AC39" t="s">
         <v>411</v>
@@ -4196,7 +4268,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -4327,7 +4399,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>349</v>
       </c>
@@ -4546,7 +4618,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -4759,7 +4831,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>349</v>
       </c>
@@ -5260,7 +5332,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -5816,7 +5888,7 @@
         <v>111</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
         <v>411</v>
@@ -6035,7 +6107,7 @@
         <v>410</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="O98" t="s">
         <v>410</v>
@@ -6309,7 +6381,7 @@
         <v>36</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K106" t="s">
         <v>410</v>
@@ -7441,9 +7513,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC137" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="5">
       <filters>
-        <filter val="CCA Junior League 4 West"/>
+        <filter val="Caldecote Recreation Ground"/>
+        <filter val="Histon Recreation Ground"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7454,7 +7527,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{6E79F0DB-3131-AA45-A339-22E9B6D6CF34}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7464,7 +7537,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{8ACDE50F-381C-0040-AA5F-51B452E45E3B}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7474,7 +7547,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{002BB6F9-1020-CF47-9F23-6ACCA91C21AF}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7484,7 +7557,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{54AC2061-F3D4-D746-B1F5-67BE6731A4E8}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7494,10 +7567,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K135:T135 K25:AB26 L27:AB27 O28:AB28 K28:M28 K29:AB91</xm:sqref>
+          <xm:sqref>K134:Z134 V135 X135:AA135 K136:AB268 K77:AB91 L76:AB76 K29:AB35 K40:AB75 L36:AB39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{BD8AE799-D183-5647-8DEA-1F32FD2FF13A}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7507,7 +7580,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{DF08BF92-56EB-0344-850D-E61CAC440CB0}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7517,7 +7590,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{EED3741D-7691-0E42-85B1-1439D72BEBB4}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7527,7 +7600,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{B392DCE9-3ED0-204D-8821-B2788C9FCC82}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7537,10 +7610,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K134:Z134 V135 X135:AA135 K136:AB268</xm:sqref>
+          <xm:sqref>K2:AB23 J2:J137 K24:W24 Y24 AA24:AB24 K92:R92 T92:U92 W92:X92 Z92:AB92 K93:AB105 K106:R106 T106 V106:Z106 K107:AB113 L114:T114 W114:X114 K115:AA115 K116:AB133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EE479FD7-A03C-B94E-9D94-278A8371B401}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{6E79F0DB-3131-AA45-A339-22E9B6D6CF34}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7550,7 +7623,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{4B1B0831-F22D-CF49-AF1B-63675E4CD010}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{8ACDE50F-381C-0040-AA5F-51B452E45E3B}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7560,7 +7633,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CBAC2376-DC78-D547-AAB3-C6E88F9C4363}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{002BB6F9-1020-CF47-9F23-6ACCA91C21AF}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7570,7 +7643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{D39523C7-D398-0E4A-A420-1677FDF2C3CF}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{54AC2061-F3D4-D746-B1F5-67BE6731A4E8}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7580,10 +7653,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2:J137 K24:W24 Y24 AA24:AB24 K92:R92 T92:U92 W92:X92 Z92:AB92 K93:AB105 K106:R106 T106 V106:Z106 L114:T114 W114:X114 K115:AA115 K116:AB133 K2:AB23 K107:AB113</xm:sqref>
+          <xm:sqref>K25:AB26 L27:AB27 K28:M28 O28:AB28 K135:T135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{D09C2CE9-FDB6-E446-BAC4-4B6FB6975194}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7593,7 +7666,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{082905B3-172E-F14A-98AB-46C71B304536}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7603,7 +7676,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{AA7CE14A-B52A-A24A-9E0F-A6386A81294B}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7613,7 +7686,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{9C6254B6-8C2B-8245-B8D9-DD1A3AD774E9}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7626,7 +7699,7 @@
           <xm:sqref>AB134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{E1B4AC4F-5B7E-724B-90C7-34BBFB20B63C}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{95897C91-1722-8549-A7B8-F8A98D5DE4EC}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7636,7 +7709,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{DD224C00-D07D-8140-A4AD-370D626436B1}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{EADE4857-66E8-2A4B-86DF-988227388354}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7646,7 +7719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{546C9E0B-8268-104B-A2CD-6BFAFC8C3132}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{F32A821B-72D2-CC4B-AD40-C13A356168A3}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7656,7 +7729,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{EFEDC74D-3E78-1F4C-9575-5A63930C78A4}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{3C457CC1-F058-084E-A41D-960715CD8C8C}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7666,10 +7739,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AC2:AC136</xm:sqref>
+          <xm:sqref>AC2:AC137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{95897C91-1722-8549-A7B8-F8A98D5DE4EC}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{A785AA1C-05BE-5E48-98DA-991FD4169AB4}">
             <xm:f>constraints!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -7679,7 +7752,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{EADE4857-66E8-2A4B-86DF-988227388354}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{241E9525-52FB-9346-B658-2D9A878A59E5}">
             <xm:f>constraints!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7689,7 +7762,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F32A821B-72D2-CC4B-AD40-C13A356168A3}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{E9D1F6A3-7502-1A4C-8AD2-F2119F1B4329}">
             <xm:f>constraints!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -7699,7 +7772,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{3C457CC1-F058-084E-A41D-960715CD8C8C}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{97EA10B0-5DAE-8A4A-B3B4-00A2BCC53BCF}">
             <xm:f>constraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -7709,7 +7782,93 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AC137</xm:sqref>
+          <xm:sqref>K36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{EFCAE9D8-312D-3641-9C10-973381BB7031}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{BA0FFA15-8781-0942-A100-BB096EF81DE0}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{A292D717-2013-704F-985C-2A6964223663}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{4E5B27AC-E7E6-124E-841F-2F780BF2DD83}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{30288EFB-44D8-B140-94BD-74F88E2F253C}">
+            <xm:f>constraints!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1E65DFF7-171C-994E-9F07-D7327633C57C}">
+            <xm:f>constraints!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{A014508F-3F62-3645-A009-6BD68E73048B}">
+            <xm:f>constraints!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{99EDAA03-C9D3-2048-85E8-45FC59B5387C}">
+            <xm:f>constraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7719,7 +7878,7 @@
           <x14:formula1>
             <xm:f>constraints!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA133 AB133:AB134 S133:Z134 J2:J137 Z25:Z113 T116:AB132 S107:S132 X2:X23 V93:V113 T2:T115 Z2:Z23 Y93:Y113 W2:W113 O28:R28 U2:U105 S2:S91 V2:V91 S93:S105 AA2:AB105 X25:X113 AB136:AB268 Y2:Y91 U115:V115 W114:X115 Y115:AA115 K115:K268 L135:T268 U136:U268 V135:V268 W136:W268 X135:AA268 U107:U113 AA107:AB113 K2:K26 K29:K113 L2:R27 AC2:AC137 K28:M28 L29:R134</xm:sqref>
+          <xm:sqref>AA133 AB133:AB134 S133:Z134 J2:J137 Z25:Z113 T116:AB132 S107:S132 X2:X23 V93:V113 T2:T115 Z2:Z23 Y93:Y113 W2:W113 O28:R28 U2:U105 S2:S91 V2:V91 S93:S105 X25:X113 AB136:AB268 U115:V115 W114:X115 Y115:AA115 K115:K268 L135:T268 U136:U268 V135:V268 W136:W268 X135:AA268 U107:U113 AA107:AB113 K2:K26 L2:R27 AC2:AC137 K28:M28 L29:R134 Y2:Y91 K77:K113 AA2:AB105 K29:K36 K38:K75</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
